--- a/data/trans_bre/P18_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_1_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,13</t>
+          <t>-27,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,37</t>
+          <t>-26,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,15</t>
+          <t>-24,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,88</t>
+          <t>-25,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>81,27%</t>
+          <t>-12,92</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>128,22%</t>
+          <t>-46,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>63,85%</t>
+          <t>-33,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>76,95%</t>
+          <t>-33,68%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-35,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-21,06%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,49; 37,98</t>
+          <t>-38,54; -16,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,96; 32,29</t>
+          <t>-36,13; -17,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,39; 28,08</t>
+          <t>-34,84; -14,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,56; 31,07</t>
+          <t>-36,05; -14,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,7; 119,16</t>
+          <t>-25,78; 6,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,29; 204,44</t>
+          <t>-57,63; -30,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,37; 112,56</t>
+          <t>-43,82; -22,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37,0; 135,45</t>
+          <t>-44,8; -20,49</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-46,25; -21,7</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-37,27; 10,7</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,19</t>
+          <t>-23,97</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,45</t>
+          <t>-21,36</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,91</t>
+          <t>-15,71</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,99</t>
+          <t>-17,33</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>70,35%</t>
+          <t>-10,23</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>80,95%</t>
+          <t>-38,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>57,94%</t>
+          <t>-29,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>62,39%</t>
+          <t>-23,86%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-24,87%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-15,15%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,86; 33,07</t>
+          <t>-35,02; -12,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,75; 30,84</t>
+          <t>-31,65; -9,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,11; 28,0</t>
+          <t>-28,31; -4,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,46; 26,89</t>
+          <t>-30,03; -5,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,81; 113,65</t>
+          <t>-21,56; 4,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,79; 146,02</t>
+          <t>-51,6; -21,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,54; 102,17</t>
+          <t>-42,34; -14,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,06; 114,08</t>
+          <t>-39,27; -7,38</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-39,38; -9,33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-29,87; 7,31</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,79</t>
+          <t>-35,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,33</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,73</t>
+          <t>-20,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,1</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>66,55%</t>
+          <t>9,29</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>48,12%</t>
+          <t>-54,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>-5,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>-30,69%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,99%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>22,7%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,48; 48,18</t>
+          <t>-63,69; -11,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 26,76</t>
+          <t>-29,05; 21,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 27,46</t>
+          <t>-46,51; 7,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 31,57</t>
+          <t>-27,64; 29,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,08; 175,55</t>
+          <t>-18,74; 46,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 191,76</t>
+          <t>-80,46; -20,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-21,8; 107,95</t>
+          <t>-34,33; 40,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 95,77</t>
+          <t>-59,8; 15,16</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-48,9; 155,11</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-31,97; 290,28</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>27,46</t>
+          <t>-27,1</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,3</t>
+          <t>-22,26</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,83</t>
+          <t>-20,59</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,12</t>
+          <t>-19,27</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>74,65%</t>
+          <t>-9,38</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>98,32%</t>
+          <t>-43,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,96%</t>
+          <t>-29,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,58%</t>
+          <t>-29,52%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-28,43%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-15,26%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,43; 33,06</t>
+          <t>-34,49; -18,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,91; 27,78</t>
+          <t>-29,48; -15,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,18; 23,99</t>
+          <t>-27,66; -11,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,35; 25,38</t>
+          <t>-26,54; -10,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,23; 98,43</t>
+          <t>-17,9; 3,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,32; 137,6</t>
+          <t>-52,58; -33,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,94; 84,99</t>
+          <t>-37,45; -21,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,77; 92,8</t>
+          <t>-37,82; -18,33</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-37,2; -16,88</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-26,93; 5,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P18_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-27,93</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-26,76</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-24,81</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-25,44</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-12,92</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-46,09%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-33,66%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-33,68%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-35,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-21,06%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-27.93475254401832</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-27.19147402572766</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-25.23766861459655</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-24.75956327097067</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-13.13421084210398</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.4609085834996778</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.3402057820232348</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.3437681757180864</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.3441949985480051</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.2157947052686535</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-38,54; -16,66</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-36,13; -17,46</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-34,84; -14,15</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-36,05; -14,47</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-25,78; 6,33</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-57,63; -30,92</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-43,82; -22,97</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-44,8; -20,49</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-46,25; -21,7</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-37,27; 10,7</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-38.54464826273771</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-37.03334063681081</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-35.18328167933708</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-35.49019976980681</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-26.44762561003756</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5763458295780249</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4449226793458571</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4504018487548387</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.460860567815556</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3829612381666616</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-16.66385939597992</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-17.53141009162291</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-14.72825159184954</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-13.85771477102323</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>5.433133992820212</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>-0.3092448491992613</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>-0.2305913875286794</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.2147588453762952</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.2064244462537338</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.1092282705399064</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-23,97</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-21,36</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-15,71</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-17,33</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-10,23</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-38,67%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-29,97%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-23,86%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-24,87%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-15,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-35,02; -12,2</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-31,65; -9,33</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-28,31; -4,28</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-30,03; -5,54</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-21,56; 4,29</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-51,6; -21,26</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-42,34; -14,71</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-39,27; -7,38</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-39,38; -9,33</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-29,87; 7,31</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-23.96929645687609</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-21.37509981804483</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-14.98057697334351</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-18.12487916338842</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-11.92673729771837</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.3867035693817997</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.2992854986783523</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2291781556661803</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.260863934092596</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.1734820829179758</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-35,37</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,08</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-20,68</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>9,29</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-54,52%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-5,69%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-30,69%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,99%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>22,7%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-35.01699860281563</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-32.43454217393698</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-27.19840615624615</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-31.52806893622612</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-23.55724865373802</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.5159823708861361</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4257299214604824</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3823160031925332</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4121489367162011</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3173251789599555</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-63,69; -11,27</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-29,05; 21,14</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-46,51; 7,57</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-27,64; 29,76</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-18,74; 46,38</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-80,46; -20,02</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-34,33; 40,63</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-59,8; 15,16</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-48,9; 155,11</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-31,97; 290,28</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-12.19808067068091</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-8.457928505591774</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-3.116859855401221</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-6.366750657465636</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.970344451307676</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.2126437825863944</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>-0.1359561296754749</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.05619139956297813</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.1017339237343704</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.03625493860048556</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,233 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-27,1</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-22,26</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-20,59</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-19,27</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-9,38</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-43,97%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-29,57%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-29,52%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-28,43%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-15,26%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-35.37127930108498</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-4.353528775988513</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-18.66227520532522</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.123286274295721</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>9.241315007864747</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.5451847125107478</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.05985249334575157</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2894122665428957</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.02945652418879033</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.2265168920391237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-34,49; -18,67</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-29,48; -15,18</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-27,66; -11,89</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-26,54; -10,59</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-17,9; 3,64</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-52,58; -33,15</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-37,45; -21,39</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-37,82; -18,33</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-37,2; -16,88</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-26,93; 5,42</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-63.69221994805528</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-28.9732677505993</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-44.43823229840033</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-26.9164070688575</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-19.35207758712072</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.8046170585399585</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.349074971402463</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5775629792308273</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4884142427219446</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.3181758267560509</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-11.27152217345311</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>20.13371949119043</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.986268939474126</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>30.86497691820394</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>45.25092006853264</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>-0.200235095693356</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3569932957714941</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2202783246533221</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.550926440900419</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>2.966902890253656</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-27.09738083130905</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-22.39497633790136</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-20.22203522607566</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-19.18654969661138</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-10.15732759131006</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.4396925417684444</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2961124224885657</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.2928760783995045</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.2853048110675568</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.1646597880503443</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-34.49095721241153</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-29.86857764711403</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-27.48591169005874</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-26.22367136508392</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-18.67943911372813</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.525844803305255</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3747085414590002</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3844073906151057</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3708922532612902</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2802996495813451</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-18.66913685388196</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-15.26803041631376</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-11.57444137081566</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-9.932698551658518</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.672518856814013</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.3314785682697955</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.2113205929905204</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.1818125778183161</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.1669071549450068</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.03140044255710837</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1113,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
